--- a/public/data/lime/lime_table_rwanda.xlsx
+++ b/public/data/lime/lime_table_rwanda.xlsx
@@ -1285,16 +1285,16 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>5.4</v>
+        <v>4.71</v>
       </c>
       <c r="E2" t="n">
-        <v>2.93</v>
+        <v>1.68</v>
       </c>
       <c r="F2" t="n">
-        <v>0.83</v>
+        <v>0.18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>2.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.66</v>
+        <v>0.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1332,16 +1332,16 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>3.82</v>
+        <v>3.36</v>
       </c>
       <c r="E3" t="n">
-        <v>2.22</v>
+        <v>1.39</v>
       </c>
       <c r="F3" t="n">
-        <v>0.83</v>
+        <v>0.22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.41</v>
+        <v>1.66</v>
       </c>
       <c r="K3" t="n">
-        <v>0.43</v>
+        <v>0.11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>5.7</v>
+        <v>5.05</v>
       </c>
       <c r="E4" t="n">
-        <v>3.57</v>
+        <v>2.24</v>
       </c>
       <c r="F4" t="n">
-        <v>1.39</v>
+        <v>0.42</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1397,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.19</v>
+        <v>3.36</v>
       </c>
       <c r="K4" t="n">
-        <v>1.75</v>
+        <v>0.73</v>
       </c>
       <c r="L4" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="E5" t="n">
-        <v>0.77</v>
+        <v>0.26</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1444,16 +1444,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.71</v>
+        <v>0.85</v>
       </c>
       <c r="K5" t="n">
-        <v>0.17</v>
+        <v>0.01</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>4.39</v>
+        <v>3.83</v>
       </c>
       <c r="E6" t="n">
-        <v>2.49</v>
+        <v>1.39</v>
       </c>
       <c r="F6" t="n">
-        <v>0.71</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1491,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5.09</v>
+        <v>4.38</v>
       </c>
       <c r="K6" t="n">
-        <v>2.88</v>
+        <v>1.53</v>
       </c>
       <c r="L6" t="n">
-        <v>0.89</v>
+        <v>0.21</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1520,13 +1520,13 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>4.28</v>
+        <v>3.83</v>
       </c>
       <c r="E7" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="F7" t="n">
-        <v>1.17</v>
+        <v>0.26</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1538,13 +1538,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.44</v>
+        <v>3.78</v>
       </c>
       <c r="K7" t="n">
-        <v>2.59</v>
+        <v>1.33</v>
       </c>
       <c r="L7" t="n">
-        <v>0.78</v>
+        <v>0.07</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>3.86</v>
+        <v>3.48</v>
       </c>
       <c r="E8" t="n">
-        <v>2.58</v>
+        <v>1.77</v>
       </c>
       <c r="F8" t="n">
-        <v>1.19</v>
+        <v>0.4</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.32</v>
+        <v>2.84</v>
       </c>
       <c r="K8" t="n">
-        <v>1.53</v>
+        <v>0.64</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>96</v>
       </c>
       <c r="D9" t="n">
-        <v>4.68</v>
+        <v>4.19</v>
       </c>
       <c r="E9" t="n">
-        <v>3.18</v>
+        <v>2.19</v>
       </c>
       <c r="F9" t="n">
-        <v>1.57</v>
+        <v>0.54</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1632,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.61</v>
+        <v>3.82</v>
       </c>
       <c r="K9" t="n">
-        <v>2.55</v>
+        <v>1.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.68</v>
+        <v>0.15</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1661,31 +1661,31 @@
         <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>4.81</v>
+        <v>4.31</v>
       </c>
       <c r="E10" t="n">
-        <v>3.28</v>
+        <v>2.41</v>
       </c>
       <c r="F10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K10" t="n">
         <v>1.91</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.09</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>0.17</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1708,13 +1708,13 @@
         <v>98</v>
       </c>
       <c r="D11" t="n">
-        <v>4.22</v>
+        <v>3.88</v>
       </c>
       <c r="E11" t="n">
-        <v>2.84</v>
+        <v>2.13</v>
       </c>
       <c r="F11" t="n">
-        <v>1.37</v>
+        <v>0.59</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>2.53</v>
       </c>
       <c r="K11" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1755,16 +1755,16 @@
         <v>99</v>
       </c>
       <c r="D12" t="n">
-        <v>4.42</v>
+        <v>4.01</v>
       </c>
       <c r="E12" t="n">
-        <v>3.31</v>
+        <v>2.47</v>
       </c>
       <c r="F12" t="n">
-        <v>2.06</v>
+        <v>0.86</v>
       </c>
       <c r="G12" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>5.07</v>
+        <v>4.32</v>
       </c>
       <c r="K12" t="n">
-        <v>3.05</v>
+        <v>1.77</v>
       </c>
       <c r="L12" t="n">
-        <v>1.23</v>
+        <v>0.32</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>4.32</v>
+        <v>3.97</v>
       </c>
       <c r="E13" t="n">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="F13" t="n">
-        <v>1.43</v>
+        <v>0.63</v>
       </c>
       <c r="G13" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1820,13 +1820,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="K13" t="n">
-        <v>1.99</v>
+        <v>1.18</v>
       </c>
       <c r="L13" t="n">
-        <v>0.44</v>
+        <v>0.02</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>4.88</v>
+        <v>4.47</v>
       </c>
       <c r="E14" t="n">
-        <v>3.71</v>
+        <v>2.81</v>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>1.03</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1867,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>3.37</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>1.01</v>
       </c>
       <c r="L14" t="n">
-        <v>0.67</v>
+        <v>0.13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1896,16 +1896,16 @@
         <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>4.6</v>
+        <v>3.79</v>
       </c>
       <c r="E15" t="n">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="F15" t="n">
-        <v>1.21</v>
+        <v>0.3</v>
       </c>
       <c r="G15" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.87</v>
+        <v>2.06</v>
       </c>
       <c r="K15" t="n">
-        <v>1.03</v>
+        <v>0.36</v>
       </c>
       <c r="L15" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1943,16 +1943,16 @@
         <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>4.47</v>
+        <v>3.75</v>
       </c>
       <c r="E16" t="n">
-        <v>2.71</v>
+        <v>1.38</v>
       </c>
       <c r="F16" t="n">
-        <v>0.99</v>
+        <v>0.16</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.35</v>
+        <v>1.47</v>
       </c>
       <c r="K16" t="n">
-        <v>0.61</v>
+        <v>0.11</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1990,16 +1990,16 @@
         <v>105</v>
       </c>
       <c r="D17" t="n">
-        <v>3.06</v>
+        <v>2.2</v>
       </c>
       <c r="E17" t="n">
-        <v>1.25</v>
+        <v>0.38</v>
       </c>
       <c r="F17" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="K17" t="n">
-        <v>0.89</v>
+        <v>0.27</v>
       </c>
       <c r="L17" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2037,16 +2037,16 @@
         <v>106</v>
       </c>
       <c r="D18" t="n">
-        <v>2.59</v>
+        <v>1.08</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.62</v>
+        <v>1.86</v>
       </c>
       <c r="K18" t="n">
-        <v>0.88</v>
+        <v>0.22</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>107</v>
       </c>
       <c r="D19" t="n">
-        <v>4.04</v>
+        <v>3.3</v>
       </c>
       <c r="E19" t="n">
-        <v>2.17</v>
+        <v>1.02</v>
       </c>
       <c r="F19" t="n">
-        <v>0.57</v>
+        <v>0.04</v>
       </c>
       <c r="G19" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2102,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.25</v>
+        <v>3.46</v>
       </c>
       <c r="K19" t="n">
-        <v>2.28</v>
+        <v>1.1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.68</v>
+        <v>0.11</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>108</v>
       </c>
       <c r="D20" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="E20" t="n">
-        <v>1.95</v>
+        <v>1.05</v>
       </c>
       <c r="F20" t="n">
-        <v>0.57</v>
+        <v>0.09</v>
       </c>
       <c r="G20" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2149,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.12</v>
+        <v>1.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>109</v>
       </c>
       <c r="D21" t="n">
-        <v>4.47</v>
+        <v>3.76</v>
       </c>
       <c r="E21" t="n">
-        <v>2.41</v>
+        <v>1.11</v>
       </c>
       <c r="F21" t="n">
-        <v>0.63</v>
+        <v>0.14</v>
       </c>
       <c r="G21" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2196,16 +2196,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>5.16</v>
+        <v>4.27</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>0.22</v>
       </c>
       <c r="M21" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2225,16 +2225,16 @@
         <v>111</v>
       </c>
       <c r="D22" t="n">
-        <v>4.69</v>
+        <v>4.21</v>
       </c>
       <c r="E22" t="n">
-        <v>3.18</v>
+        <v>2.24</v>
       </c>
       <c r="F22" t="n">
-        <v>1.61</v>
+        <v>0.53</v>
       </c>
       <c r="G22" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2243,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.94</v>
+        <v>2.87</v>
       </c>
       <c r="K22" t="n">
-        <v>1.33</v>
+        <v>0.11</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2272,13 +2272,13 @@
         <v>112</v>
       </c>
       <c r="D23" t="n">
-        <v>5.38</v>
+        <v>4.92</v>
       </c>
       <c r="E23" t="n">
-        <v>3.97</v>
+        <v>3.02</v>
       </c>
       <c r="F23" t="n">
-        <v>2.42</v>
+        <v>1.1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.04</v>
+        <v>3.26</v>
       </c>
       <c r="K23" t="n">
-        <v>1.64</v>
+        <v>0.68</v>
       </c>
       <c r="L23" t="n">
-        <v>0.41</v>
+        <v>0.01</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2319,16 +2319,16 @@
         <v>113</v>
       </c>
       <c r="D24" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="E24" t="n">
-        <v>2.61</v>
+        <v>1.82</v>
       </c>
       <c r="F24" t="n">
-        <v>1.3</v>
+        <v>0.55</v>
       </c>
       <c r="G24" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.42</v>
+        <v>1.64</v>
       </c>
       <c r="K24" t="n">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>114</v>
       </c>
       <c r="D25" t="n">
-        <v>2.96</v>
+        <v>2.44</v>
       </c>
       <c r="E25" t="n">
-        <v>1.32</v>
+        <v>0.65</v>
       </c>
       <c r="F25" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2384,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.43</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
-        <v>1.06</v>
+        <v>0.03</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>115</v>
       </c>
       <c r="D26" t="n">
-        <v>1.98</v>
+        <v>1.34</v>
       </c>
       <c r="E26" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2431,16 +2431,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.02</v>
+        <v>1.14</v>
       </c>
       <c r="K26" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2460,16 +2460,16 @@
         <v>116</v>
       </c>
       <c r="D27" t="n">
-        <v>2.57</v>
+        <v>2.09</v>
       </c>
       <c r="E27" t="n">
-        <v>1.13</v>
+        <v>0.34</v>
       </c>
       <c r="F27" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="K27" t="n">
-        <v>1.09</v>
+        <v>0.24</v>
       </c>
       <c r="L27" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2507,16 +2507,16 @@
         <v>117</v>
       </c>
       <c r="D28" t="n">
-        <v>4.81</v>
+        <v>4.25</v>
       </c>
       <c r="E28" t="n">
-        <v>3.13</v>
+        <v>2.17</v>
       </c>
       <c r="F28" t="n">
-        <v>1.56</v>
+        <v>0.66</v>
       </c>
       <c r="G28" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2525,16 +2525,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="K28" t="n">
-        <v>1.56</v>
+        <v>0.44</v>
       </c>
       <c r="L28" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         <v>119</v>
       </c>
       <c r="D29" t="n">
-        <v>4.72</v>
+        <v>4.11</v>
       </c>
       <c r="E29" t="n">
-        <v>2.7</v>
+        <v>1.47</v>
       </c>
       <c r="F29" t="n">
-        <v>0.75</v>
+        <v>0.11</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.94</v>
+        <v>4.21</v>
       </c>
       <c r="K29" t="n">
-        <v>2.83</v>
+        <v>1.44</v>
       </c>
       <c r="L29" t="n">
-        <v>0.81</v>
+        <v>0.15</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2601,13 +2601,13 @@
         <v>120</v>
       </c>
       <c r="D30" t="n">
-        <v>6.29</v>
+        <v>5.62</v>
       </c>
       <c r="E30" t="n">
-        <v>4.39</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>2.32</v>
+        <v>0.88</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2619,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.65</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.66</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>2.52</v>
+        <v>1.17</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>121</v>
       </c>
       <c r="D31" t="n">
-        <v>5.31</v>
+        <v>4.72</v>
       </c>
       <c r="E31" t="n">
-        <v>3.57</v>
+        <v>2.39</v>
       </c>
       <c r="F31" t="n">
-        <v>1.74</v>
+        <v>0.55</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.8</v>
+        <v>5.08</v>
       </c>
       <c r="K31" t="n">
-        <v>3.89</v>
+        <v>2.45</v>
       </c>
       <c r="L31" t="n">
-        <v>1.96</v>
+        <v>0.81</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
